--- a/biology/Botanique/Ophiuros_exaltatus/Ophiuros_exaltatus.xlsx
+++ b/biology/Botanique/Ophiuros_exaltatus/Ophiuros_exaltatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophiuros exaltatus est une espèce de plantes monocotylédones vivaces de la famille des Poaceae (graminées), sous-famille des Bambusoideae, originaire des régions tropicales d'Asie.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life :
 Aegilops exaltata L.
 Mnesithea exaltata (L.) Skeels
 Ophiuros corymbosus (L.f.) C.F.Gaertn.
@@ -577,10 +596,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition d' Ophiuros exaltatus s'étend en Asie tropicale et subtropicale ainsi qu'en Australasie.
-On trouve cette espèce notamment en Chine  (régions du centre et du sud-est, y compris Hainan), dans le sous-continent indien (Inde, Népal, Pakistan, Sri Lanka), dans la péninsule indochinoise (Laos, Myanmar, Thaïlande, Vietnam), en Malaisie, aux Philippines, en Nouvelle-Guinée et en Australie (Territoires du Nord, Queensland et Australie occidentale)[2].
+On trouve cette espèce notamment en Chine  (régions du centre et du sud-est, y compris Hainan), dans le sous-continent indien (Inde, Népal, Pakistan, Sri Lanka), dans la péninsule indochinoise (Laos, Myanmar, Thaïlande, Vietnam), en Malaisie, aux Philippines, en Nouvelle-Guinée et en Australie (Territoires du Nord, Queensland et Australie occidentale).
 </t>
         </is>
       </c>
